--- a/Sprint 2/TestCases_All.xlsx
+++ b/Sprint 2/TestCases_All.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jordan\Uni\Year3\SEM2\IFB299\Personal_Portfolio\Sprint 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AF4F5B9-59D1-448F-BBF6-A0AA8DC323F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="256">
   <si>
     <t>Creator</t>
   </si>
@@ -52,6 +68,9 @@
     <t>User is logged in as manager or employee</t>
   </si>
   <si>
+    <t>User Should be able to click on a link to view a store specific page or use the navbar to navigate away</t>
+  </si>
+  <si>
     <t>Returns a sales report on all stores within QLD</t>
   </si>
   <si>
@@ -88,6 +107,9 @@
     <t>Generate a report on a specifc store in a QLD</t>
   </si>
   <si>
+    <t>User should be able to use the navbar to navigate away</t>
+  </si>
+  <si>
     <t>Returns a sales report on the Brisbane store</t>
   </si>
   <si>
@@ -122,6 +144,9 @@
   </si>
   <si>
     <t>Navigation functionality of the site is functional</t>
+  </si>
+  <si>
+    <t>User is able to fill in the form to login</t>
   </si>
   <si>
     <t>User is navigated to Login page</t>
@@ -132,6 +157,9 @@
 Password: Empolyee1</t>
   </si>
   <si>
+    <t>User is on the login page and has valid credentials</t>
+  </si>
+  <si>
     <t>User is Logged in as an employee</t>
   </si>
   <si>
@@ -142,6 +170,9 @@
   </si>
   <si>
     <t>User is a able to log in as employee</t>
+  </si>
+  <si>
+    <t>User is able to view provided information or use the nav bar to navigate away</t>
   </si>
   <si>
     <t>User is navigated to Employee dashboard which contains the tabs including:</t>
@@ -152,6 +183,9 @@
 Password: Manager1</t>
   </si>
   <si>
+    <t>User is able to access the site as a manager</t>
+  </si>
+  <si>
     <t>User is logged in as a manager</t>
   </si>
   <si>
@@ -169,6 +203,9 @@
 Password: Customer1</t>
   </si>
   <si>
+    <t>User is able to access the site as a customer</t>
+  </si>
+  <si>
     <t>User is logged in as a customer</t>
   </si>
   <si>
@@ -178,18 +215,30 @@
     <t>User is able to log in as a customer</t>
   </si>
   <si>
+    <t>User is on dashboard and is able to access the site as a customer</t>
+  </si>
+  <si>
+    <t>Customer is navigated to Customer dashboard</t>
+  </si>
+  <si>
     <t>Customer is navigated to Customer dashboard'</t>
   </si>
   <si>
     <t>Log in with invalid username but valid password</t>
   </si>
   <si>
+    <t>User remains on the login page, and is notified that the credentials are not correct</t>
+  </si>
+  <si>
     <t>User is notified that the username/password do not match</t>
   </si>
   <si>
     <t>Log in with invalid password but valid username</t>
   </si>
   <si>
+    <t>User is on the login page</t>
+  </si>
+  <si>
     <t>Manual</t>
   </si>
   <si>
@@ -208,84 +257,141 @@
     <t>Clicking Lost Password on Login page</t>
   </si>
   <si>
+    <t>User is able to type in an email to send a password reset link</t>
+  </si>
+  <si>
     <t>User is navigated to a password rest page</t>
   </si>
   <si>
     <t>Click Signup in navigation bar</t>
   </si>
   <si>
+    <t>User is accessing the site whilst not logged in</t>
+  </si>
+  <si>
+    <t>User is able to type in details to signup to the site</t>
+  </si>
+  <si>
     <t>User is navigated to Signup page</t>
   </si>
   <si>
     <t>Customer account type specific NavBar</t>
   </si>
   <si>
+    <t>User is able to use the navbar to navigate the site</t>
+  </si>
+  <si>
     <t>Customer is presented with a navbar specifc to their account type</t>
   </si>
   <si>
     <t>Employee account type specfic NavBar</t>
   </si>
   <si>
+    <t>User is logged in as an Employee</t>
+  </si>
+  <si>
     <t>Employee is presented with a navbar specific to their account type</t>
   </si>
   <si>
     <t>Manager account type specifc NavBar</t>
   </si>
   <si>
+    <t>User is logged in as a Manager</t>
+  </si>
+  <si>
     <t>Manager is presented with a navbar specifc to their account type</t>
   </si>
   <si>
     <t>Click 'All Vehicles' link</t>
   </si>
   <si>
+    <t>User is logged in to the site</t>
+  </si>
+  <si>
+    <t>User is able to search for vehicles or use the navbar to navigate to other pages</t>
+  </si>
+  <si>
     <t>User is navigated to all vehicles page</t>
   </si>
   <si>
     <t>Click 'Contact' link</t>
   </si>
   <si>
+    <t>User is on the site</t>
+  </si>
+  <si>
+    <t>User is able to view contact details, or use the navbar to navigate to other pages</t>
+  </si>
+  <si>
     <t>User is navigated to contact page</t>
   </si>
   <si>
     <t>Click 'CRM' link</t>
   </si>
   <si>
+    <t>User is logged in as a manager or employee</t>
+  </si>
+  <si>
+    <t>User is able to view and manage customers, or use the navbar to navigate to other pages</t>
+  </si>
+  <si>
     <t>User is navigated to CRM page</t>
   </si>
   <si>
     <t>Click 'Customer Search' link</t>
   </si>
   <si>
+    <t>User is able to search for a customer, or use the navbar to navigate to the other pages</t>
+  </si>
+  <si>
     <t>User is navigated to customer search page</t>
   </si>
   <si>
     <t>Click 'Dashboard' link</t>
   </si>
   <si>
+    <t>User is able to use the current page to view important info, or use the navbar to navigate to other pages</t>
+  </si>
+  <si>
     <t>User is navigated to dashboard page</t>
   </si>
   <si>
     <t>Click 'FAQ' link</t>
   </si>
   <si>
+    <t>User is accessing the site</t>
+  </si>
+  <si>
+    <t>User is able to use the current page to view FAQ, or use the navbar to navigate to other pages</t>
+  </si>
+  <si>
     <t>User is navigated to the FAQ</t>
   </si>
   <si>
     <t>Click 'Fleet Management' link</t>
   </si>
   <si>
+    <t>User is able to use the current page to manage the fleet, or use the navbar to navigate to other pages</t>
+  </si>
+  <si>
     <t>User is navigated to the fleet managment page</t>
   </si>
   <si>
     <t>Click 'CarsRUs' link</t>
   </si>
   <si>
+    <t>User is on the homepage of the site, able to navigate to other pages using the navbar</t>
+  </si>
+  <si>
     <t>User is navigated to the CarsRUs homepage</t>
   </si>
   <si>
     <t>Click 'Orders' link</t>
   </si>
   <si>
+    <t>User is able to view/manage hire orders,  or use the navbar to navigate to other pages</t>
+  </si>
+  <si>
     <t>User is navigated to the orders page</t>
   </si>
   <si>
@@ -295,12 +401,18 @@
     <t>Click 'Reports' link</t>
   </si>
   <si>
+    <t>User is on Reports Page</t>
+  </si>
+  <si>
     <t>User is navigated to the reports page</t>
   </si>
   <si>
     <t>Click 'Search Vehicle' link</t>
   </si>
   <si>
+    <t>User is on Search Vehicle Page</t>
+  </si>
+  <si>
     <t>User is navigated to the vehicle search page</t>
   </si>
   <si>
@@ -310,6 +422,9 @@
     <t>Logged in as a employee or manager</t>
   </si>
   <si>
+    <t xml:space="preserve">User is on Search Vehicle Page with results </t>
+  </si>
+  <si>
     <t>All applicable vehicles are displayed</t>
   </si>
   <si>
@@ -322,12 +437,18 @@
     <t>Clicking on 'Delete'</t>
   </si>
   <si>
+    <t>User remains on fleet management page and can see changes once refreshed</t>
+  </si>
+  <si>
     <t>Vehicle is deleted from the database</t>
   </si>
   <si>
     <t>Searching for a deleted vehicle</t>
   </si>
   <si>
+    <t>User remains on fleet management page and can see changes</t>
+  </si>
+  <si>
     <t>Vehicle is not displayed</t>
   </si>
   <si>
@@ -370,6 +491,9 @@
     <t>Logged in as an employee or customer</t>
   </si>
   <si>
+    <t>Results are displayed on Customer Search Page</t>
+  </si>
+  <si>
     <t>A link to the customers information is presented to the user</t>
   </si>
   <si>
@@ -388,6 +512,9 @@
     <t>A customers name can be clicked on to access their details</t>
   </si>
   <si>
+    <t>User is on customer details page</t>
+  </si>
+  <si>
     <t>The customers information is presented to the user</t>
   </si>
   <si>
@@ -412,6 +539,9 @@
     <t>Search for symbols/characters outside of standard input</t>
   </si>
   <si>
+    <t>User is on customer search page</t>
+  </si>
+  <si>
     <t>No vehicle info is presented to the user</t>
   </si>
   <si>
@@ -421,7 +551,7 @@
     <t>User Logged in as Employee</t>
   </si>
   <si>
-    <t>Verify if User has seen the expected page</t>
+    <t>User is on Search Results Page and is able to make more searches</t>
   </si>
   <si>
     <t>Page Displays All Vehicles with the Land Rover Make</t>
@@ -439,13 +569,16 @@
     <t>Find More information about  a Land Rover Discovery 3 - 2006</t>
   </si>
   <si>
+    <t>User is on Vehicle Results Page for Land Rover Discovery 3 - 2006</t>
+  </si>
+  <si>
     <t>User is Redirected to a page displaying extra information including image, make name, model, Series, Year, status and orders about Land Rover Discovery 3 - 2006</t>
   </si>
   <si>
     <t>Find More information about  a Mazda 121 - 2001</t>
   </si>
   <si>
-    <t>Verify if User has seen the expected result</t>
+    <t>User is on Vehicle Results Page for Mazda 121 - 2001</t>
   </si>
   <si>
     <t>User is Redirected to a page displaying extra information including image, make name, model, Series, Year, status and orders about Mazda 121 - 2001</t>
@@ -457,7 +590,7 @@
     <t>No Requirements</t>
   </si>
   <si>
-    <t>Verify if Result is true</t>
+    <t>User is Not Logged in and sees the default page</t>
   </si>
   <si>
     <t>User is unable to see "Search Cars" in nav bar</t>
@@ -469,27 +602,42 @@
     <t>User Logged in as Customer</t>
   </si>
   <si>
+    <t>User is Logged in as customer and sees their default page</t>
+  </si>
+  <si>
     <t>Verify Alfa Romeo GTV 1999 makename (Compare displayed value to database)</t>
   </si>
   <si>
+    <t>User can see makename on Vehicle Details Page</t>
+  </si>
+  <si>
     <t>Make Name: Alfa Romeo</t>
   </si>
   <si>
     <t>Verify Alfa Romeo GTV 1999 model (Compare displayed value to database)</t>
   </si>
   <si>
+    <t>User can see model on Vehicle Details Page</t>
+  </si>
+  <si>
     <t>Model: GTV</t>
   </si>
   <si>
     <t>Verify Alfa Romeo GTV 1999 Series (Compare displayed value to database)</t>
   </si>
   <si>
+    <t>User can see series on Vehicle Details Page</t>
+  </si>
+  <si>
     <t>Series: 2</t>
   </si>
   <si>
     <t>Verify Alfa Romeo GTV 1999 Most Recent Order (Compare displayed values to database)</t>
   </si>
   <si>
+    <t>User can see orders on Vehicle Details Page</t>
+  </si>
+  <si>
     <t>ORDER ID:199, Car: Alfa Romeo GTV - 1999, Pickup Date: Jan. 15, 2006, Pickup Store: Silverwater_store - New South Wales, Return Date: Jan. 24, 2006, Return Store: Silverwater_store - New South Wales</t>
   </si>
   <si>
@@ -520,6 +668,9 @@
     <t>Suggested Cars are Displayed on Landing Page For User Not Logged in</t>
   </si>
   <si>
+    <t>User can see suggested cars on Landing page</t>
+  </si>
+  <si>
     <t>Page Displays Suggested Cars</t>
   </si>
   <si>
@@ -532,16 +683,25 @@
     <t>Viewing Car 1 details</t>
   </si>
   <si>
+    <t>User can see vehicle details for car 1</t>
+  </si>
+  <si>
     <t>Clicking "View Car" for the first car reveals more details about that vehicle including makename, model, series, status and past orders</t>
   </si>
   <si>
     <t>Viewing Car 2 details</t>
   </si>
   <si>
+    <t>User can see vehicle details for car 2</t>
+  </si>
+  <si>
     <t>Clicking "View Car" for the second car reveals more details about that vehicle including makename, model, series, status and past orders</t>
   </si>
   <si>
     <t>Viewing Car 3 details</t>
+  </si>
+  <si>
+    <t>User can see vehicle details for car 3</t>
   </si>
   <si>
     <t>Clicking "View Car" for the third car reveals more details about that vehicle including makename, model, series, status and past orders</t>
@@ -665,35 +825,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -703,7 +867,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
@@ -717,6 +887,7 @@
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -731,72 +902,369 @@
       <bottom style="thin">
         <color rgb="FF595959"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.0"/>
-    <col customWidth="1" min="2" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="15.14"/>
-    <col customWidth="1" min="4" max="4" width="13.43"/>
-    <col customWidth="1" min="5" max="5" width="12.57"/>
-    <col customWidth="1" min="6" max="6" width="31.71"/>
-    <col customWidth="1" min="7" max="7" width="19.14"/>
-    <col customWidth="1" min="8" max="8" width="9.71"/>
-    <col customWidth="1" min="9" max="9" width="11.57"/>
-    <col customWidth="1" min="10" max="10" width="11.43"/>
-    <col customWidth="1" min="11" max="26" width="8.71"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,12 +1296,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="114.0" customHeight="1">
+    <row r="2" spans="1:10" ht="114" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -841,1708 +1309,1868 @@
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="114.0" customHeight="1">
+    <row r="3" spans="1:10" ht="114" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B90" si="1">B2+1</f>
+        <f t="shared" ref="B3:B90" si="0">B2+1</f>
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="114.0" customHeight="1">
+    <row r="4" spans="1:10" ht="114" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" ht="150">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" ht="150">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" ht="90">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" ht="90">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" ht="90">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" ht="90">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" ht="90">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="75">
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="135">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="120">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="135">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="120">
+      <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="135">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="90">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="120">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="120">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="120">
+      <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="120">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="90">
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="75">
+      <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="75">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="75">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="75">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="105">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="120">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="120">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="120">
+      <c r="A31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="150">
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="120">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="135">
+      <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="135">
+      <c r="A35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B12" s="2">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="135">
+      <c r="A36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="45">
+      <c r="A37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="60">
+      <c r="A38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="60">
+      <c r="A39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="60">
+      <c r="A40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="120">
+      <c r="A41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="90">
+      <c r="A42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="C42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="120">
+      <c r="A43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="120">
+      <c r="A44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="120">
+      <c r="A45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="C45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="120">
+      <c r="A46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="120">
+      <c r="A47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="C47" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="120">
+      <c r="A48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="120">
+      <c r="A49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="75">
+      <c r="A50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="75">
+      <c r="A51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="2">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="75">
+      <c r="A52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="C52" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="60">
+      <c r="A53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="C53" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="75">
+      <c r="A54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="120">
+      <c r="A55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
+      <c r="C55" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="105">
+      <c r="A56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="2">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="C56" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="180">
+      <c r="A57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="60">
+      <c r="A58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="2">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="2">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="2">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="2">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="2">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="2">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="2">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="2">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="2">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="2">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="2">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="2">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="2">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="2">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="2">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="2">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="2">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="2">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="2">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="2">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="2">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="2">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="2">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="2">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="2">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="2">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="2">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="2">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="2">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="2">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="2">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="2">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="2">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="2">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="2">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E58" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>10</v>
@@ -2550,723 +3178,723 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:12" ht="105">
       <c r="A59" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B59" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>134</v>
+        <v>171</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:12" ht="105">
       <c r="A60" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B60" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>134</v>
+        <v>171</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K60" s="5"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:12" ht="105">
       <c r="A61" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B61" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>134</v>
+        <v>171</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K61" s="5"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:12" ht="75">
       <c r="A62" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B62" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:12" ht="105">
       <c r="A63" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B63" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>146</v>
+        <v>184</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:12" ht="105">
       <c r="A64" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B64" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>146</v>
+        <v>188</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K64" s="5"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:26" ht="105">
       <c r="A65" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B65" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K65" s="5"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:26" ht="90">
       <c r="A66" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B66" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K66" s="5"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:26" ht="90">
       <c r="A67" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B67" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K67" s="5"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:26" ht="120">
       <c r="A68" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K68" s="5"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:26" ht="90">
       <c r="A69" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B69" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K69" s="5"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:26" ht="90">
       <c r="A70" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B70" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K70" s="5"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:26" ht="90">
       <c r="A71" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K71" s="5"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:26" ht="120">
       <c r="A72" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B72" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="75">
       <c r="A73" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B73" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>134</v>
+        <v>184</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" ht="90">
       <c r="A74" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B74" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>134</v>
+        <v>171</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="90">
       <c r="A75" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B75" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>134</v>
+        <v>188</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" ht="75">
       <c r="A76" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B76" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>134</v>
+        <v>184</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" ht="75">
       <c r="A77" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B77" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>134</v>
+        <v>184</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" ht="75">
       <c r="A78" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B78" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="H78" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" ht="270">
       <c r="A79" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="B79" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
@@ -3285,37 +3913,37 @@
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:26" ht="285">
       <c r="A80" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="B80" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
@@ -3334,37 +3962,37 @@
       <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:26" ht="225">
       <c r="A81" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="B81" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
@@ -3383,37 +4011,37 @@
       <c r="Y81" s="7"/>
       <c r="Z81" s="7"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:26" ht="240">
       <c r="A82" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
@@ -3432,37 +4060,37 @@
       <c r="Y82" s="7"/>
       <c r="Z82" s="7"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:26" ht="135">
       <c r="A83" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="B83" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
@@ -3481,37 +4109,37 @@
       <c r="Y83" s="7"/>
       <c r="Z83" s="7"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:26" ht="240">
       <c r="A84" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="B84" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
@@ -3530,37 +4158,37 @@
       <c r="Y84" s="7"/>
       <c r="Z84" s="7"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:26" ht="135">
       <c r="A85" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="B85" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
@@ -3579,37 +4207,37 @@
       <c r="Y85" s="7"/>
       <c r="Z85" s="7"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:26" ht="165">
       <c r="A86" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="B86" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
@@ -3628,37 +4256,37 @@
       <c r="Y86" s="7"/>
       <c r="Z86" s="7"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:26" ht="240">
       <c r="A87" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="B87" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
@@ -3677,37 +4305,37 @@
       <c r="Y87" s="7"/>
       <c r="Z87" s="7"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:26" ht="135">
       <c r="A88" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="B88" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
@@ -3726,37 +4354,37 @@
       <c r="Y88" s="7"/>
       <c r="Z88" s="7"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:26" ht="240">
       <c r="A89" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="B89" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
@@ -3775,37 +4403,37 @@
       <c r="Y89" s="7"/>
       <c r="Z89" s="7"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:26" ht="135">
       <c r="A90" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="B90" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
@@ -3824,12 +4452,12 @@
       <c r="Y90" s="7"/>
       <c r="Z90" s="7"/>
     </row>
-    <row r="91" ht="60.75" customHeight="1"/>
-    <row r="92" ht="60.75" customHeight="1"/>
-    <row r="93" ht="60.75" customHeight="1"/>
-    <row r="94" ht="60.75" customHeight="1"/>
-    <row r="95" ht="60.75" customHeight="1"/>
-    <row r="96" ht="60.75" customHeight="1"/>
+    <row r="91" spans="1:26" ht="60.75" customHeight="1"/>
+    <row r="92" spans="1:26" ht="60.75" customHeight="1"/>
+    <row r="93" spans="1:26" ht="60.75" customHeight="1"/>
+    <row r="94" spans="1:26" ht="60.75" customHeight="1"/>
+    <row r="95" spans="1:26" ht="60.75" customHeight="1"/>
+    <row r="96" spans="1:26" ht="60.75" customHeight="1"/>
     <row r="97" ht="60.75" customHeight="1"/>
     <row r="98" ht="60.75" customHeight="1"/>
     <row r="99" ht="60.75" customHeight="1"/>
@@ -4736,9 +5364,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>